--- a/documentation/RequirementMatrix_EsEn.xlsx
+++ b/documentation/RequirementMatrix_EsEn.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terrapin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terrapin\myfleet\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requierement Espanol" sheetId="1" r:id="rId1"/>
     <sheet name="Requirement English" sheetId="3" r:id="rId2"/>
+    <sheet name="Database Structure" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Requierement Espanol'!$B$1:$K$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Requirement English'!$B$1:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -340,6 +341,99 @@
   </si>
   <si>
     <t>City Hall</t>
+  </si>
+  <si>
+    <t>GUESTS</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>Rent Amt</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Dates Reserved</t>
+  </si>
+  <si>
+    <t>Past Dates</t>
+  </si>
+  <si>
+    <t>Expected Stay</t>
+  </si>
+  <si>
+    <t>Customer Info</t>
+  </si>
+  <si>
+    <t>Payment info</t>
+  </si>
+  <si>
+    <t>VEHICLES</t>
+  </si>
+  <si>
+    <t>oil changes</t>
+  </si>
+  <si>
+    <t>past maintenance</t>
+  </si>
+  <si>
+    <t>due maint</t>
+  </si>
+  <si>
+    <t>oil type</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>reistration expiration</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>title number</t>
+  </si>
+  <si>
+    <t>vin number</t>
+  </si>
+  <si>
+    <t>tag number</t>
+  </si>
+  <si>
+    <t>enlisted date</t>
+  </si>
+  <si>
+    <t>*key*Accidents</t>
+  </si>
+  <si>
+    <t>*key*Tracking plugin</t>
+  </si>
+  <si>
+    <t>rental platforms</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>LOCATIONS</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>points:</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,4 +2202,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>